--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED604E1-2756-4764-8517-275880BA7C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62A34F-7008-4576-B12C-3287B6ACE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2129,7 +2129,7 @@
   <dimension ref="A3:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E251" sqref="E251"/>
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7655,7 +7655,7 @@
         <v>7</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I250" t="s">
         <v>450</v>
@@ -7727,7 +7727,7 @@
         <v>7</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I253" t="s">
         <v>456</v>
@@ -7775,7 +7775,7 @@
         <v>14</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I255" t="s">
         <v>460</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62A34F-7008-4576-B12C-3287B6ACE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4310B7-5766-44C1-92FB-AF0F23E21FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2362,7 +2362,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4310B7-5766-44C1-92FB-AF0F23E21FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E6C22-8451-4210-B099-34CC04249BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2460" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Lifting" sheetId="1" r:id="rId1"/>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2338,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -2386,7 +2386,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E6C22-8451-4210-B099-34CC04249BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE341176-528C-4C62-AC0F-17B270A2016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2460" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="557">
   <si>
     <t>videoLink</t>
   </si>
@@ -1700,6 +1700,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -2128,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2413,10 @@
         <v>14</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>556</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE341176-528C-4C62-AC0F-17B270A2016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A78FC-FC3C-41C3-82C5-9CA809515702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Lifting" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="558">
   <si>
     <t>videoLink</t>
   </si>
@@ -1703,6 +1703,9 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>Something New</t>
   </si>
 </sst>
 </file>
@@ -2131,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2142,6 +2145,7 @@
     <col min="3" max="3" width="50.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
     <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2440,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
@@ -2464,7 +2468,10 @@
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>557</v>
       </c>
       <c r="I17" t="s">
         <v>28</v>
@@ -2488,7 +2495,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I18" t="s">
         <v>30</v>
@@ -2512,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I19" t="s">
         <v>32</v>
@@ -2536,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I20" t="s">
         <v>34</v>
@@ -2560,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -2584,7 +2591,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787A78FC-FC3C-41C3-82C5-9CA809515702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD0C40-7051-4477-B4A7-C3C7D9B0F48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2615,7 +2615,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I23" t="s">
         <v>40</v>
@@ -2639,7 +2639,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I24" t="s">
         <v>42</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD0C40-7051-4477-B4A7-C3C7D9B0F48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558FF9B-EE62-4082-BC7F-57FF9BAE9597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2135,7 +2135,7 @@
   <dimension ref="A3:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2663,7 @@
         <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I25" t="s">
         <v>44</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A558FF9B-EE62-4082-BC7F-57FF9BAE9597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF8DA0-81E8-483A-9015-0C90AFB75483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2687,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I26" t="s">
         <v>46</v>
@@ -2711,7 +2711,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I27" t="s">
         <v>48</v>
@@ -2735,7 +2735,7 @@
         <v>7</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I28" t="s">
         <v>50</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BF8DA0-81E8-483A-9015-0C90AFB75483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F1123-4346-4CEF-A4DE-868D6CE3C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2135,7 +2135,7 @@
   <dimension ref="A3:J301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I29" t="s">
         <v>52</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089F1123-4346-4CEF-A4DE-868D6CE3C28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E1056-D844-4089-896F-71AF31BB2E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3510" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Lifting" sheetId="1" r:id="rId1"/>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I30" t="s">
         <v>54</v>
@@ -2855,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I33" t="s">
         <v>60</v>
@@ -2871,8 +2871,8 @@
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="6" t="str">
-        <f t="shared" si="0"/>
+      <c r="C34" s="4" t="str">
+        <f>HYPERLINK(J34,I34)</f>
         <v>Maximum Sum Of Products</v>
       </c>
       <c r="D34" s="5" t="s">

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E1056-D844-4089-896F-71AF31BB2E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5125F9D-5261-4D0C-B54A-57203359E186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3510" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2625" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Lifting" sheetId="1" r:id="rId1"/>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2927,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I36" t="s">
         <v>66</v>
@@ -3140,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I45" t="s">
         <v>83</v>
@@ -3188,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I47" t="s">
         <v>87</v>
@@ -3212,7 +3212,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I48" t="s">
         <v>89</v>
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I49" t="s">
         <v>91</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5125F9D-5261-4D0C-B54A-57203359E186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E41D31-649F-40E4-8620-5CD5578C9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="19200" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Lifting" sheetId="1" r:id="rId1"/>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3092,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I43" t="s">
         <v>79</v>
@@ -3116,7 +3116,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I44" t="s">
         <v>81</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E41D31-649F-40E4-8620-5CD5578C9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985BAD9-C4B8-4B5E-8C08-F67BCA91D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2134,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3047,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I41" t="s">
         <v>76</v>
@@ -3071,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I42" t="s">
         <v>78</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985BAD9-C4B8-4B5E-8C08-F67BCA91D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960DBB9F-12C7-4D48-B492-0B8CD0EAED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="559">
   <si>
     <t>videoLink</t>
   </si>
@@ -1706,6 +1706,9 @@
   </si>
   <si>
     <t>Something New</t>
+  </si>
+  <si>
+    <t>CodeChef</t>
   </si>
 </sst>
 </file>
@@ -2134,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2975,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I38" t="s">
         <v>70</v>
@@ -2999,7 +3002,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I39" t="s">
         <v>72</v>
@@ -4999,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I133" t="s">
         <v>231</v>
@@ -5023,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I134" t="s">
         <v>233</v>
@@ -5047,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I135" t="s">
         <v>235</v>
@@ -5071,7 +5074,7 @@
         <v>7</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I136" t="s">
         <v>237</v>
@@ -5097,6 +5100,9 @@
       <c r="E137" s="5" t="s">
         <v>553</v>
       </c>
+      <c r="F137" s="5" t="s">
+        <v>558</v>
+      </c>
       <c r="I137" t="s">
         <v>239</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>7</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I138" t="s">
         <v>241</v>
@@ -5143,7 +5149,7 @@
         <v>7</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I139" t="s">
         <v>243</v>
@@ -5167,7 +5173,7 @@
         <v>7</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I140" t="s">
         <v>245</v>
@@ -5191,7 +5197,7 @@
         <v>7</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I141" t="s">
         <v>247</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960DBB9F-12C7-4D48-B492-0B8CD0EAED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B2969-4885-447C-BCC3-FC765270E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5B2969-4885-447C-BCC3-FC765270E05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36024B8-4634-4D30-ACDD-B3DF0ECCA2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+    <sheetView tabSelected="1" topLeftCell="C154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5245,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I143" t="s">
         <v>251</v>
@@ -5533,7 +5533,7 @@
         <v>14</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I155" t="s">
         <v>275</v>
@@ -5773,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I165" t="s">
         <v>295</v>
@@ -5869,7 +5869,7 @@
         <v>14</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I169" t="s">
         <v>303</v>
@@ -5893,7 +5893,7 @@
         <v>14</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I170" t="s">
         <v>305</v>
@@ -6445,7 +6445,7 @@
         <v>14</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I193" t="s">
         <v>349</v>

--- a/Cp Prac/Cp Pep Sheet/All Combine.xlsx
+++ b/Cp Prac/Cp Pep Sheet/All Combine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming Language\Competetive\Cp Prac\Cp Pep Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36024B8-4634-4D30-ACDD-B3DF0ECCA2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B5B354-BD41-40C0-92F2-07B92BC9E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Lifting" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="560">
   <si>
     <t>videoLink</t>
   </si>
@@ -1709,6 +1709,9 @@
   </si>
   <si>
     <t>CodeChef</t>
+  </si>
+  <si>
+    <t>Codechef</t>
   </si>
 </sst>
 </file>
@@ -2137,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E76437-F032-4C72-8139-803DC81A3669}">
   <dimension ref="A3:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C154" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5295,6 +5298,9 @@
       <c r="E145" s="5" t="s">
         <v>553</v>
       </c>
+      <c r="F145" s="5" t="s">
+        <v>559</v>
+      </c>
       <c r="I145" t="s">
         <v>255</v>
       </c>
@@ -5317,7 +5323,7 @@
         <v>7</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I146" t="s">
         <v>257</v>
@@ -5749,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I164" t="s">
         <v>293</v>
@@ -5957,8 +5963,8 @@
       <c r="B173" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C173" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="C173" s="4" t="str">
+        <f>HYPERLINK(J173,I173)</f>
         <v>Pythagorean Triples</v>
       </c>
       <c r="D173" s="5" t="s">
@@ -5989,7 +5995,7 @@
         <v>14</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I174" t="s">
         <v>313</v>
@@ -6013,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I175" t="s">
         <v>315</v>
@@ -6037,7 +6043,7 @@
         <v>14</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I176" t="s">
         <v>317</v>
@@ -6109,7 +6115,7 @@
         <v>14</v>
       </c>
       <c r="E179" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I179" t="s">
         <v>323</v>
@@ -6397,7 +6403,7 @@
         <v>14</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I191" t="s">
         <v>345</v>
@@ -6493,7 +6499,7 @@
         <v>14</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I195" t="s">
         <v>353</v>
@@ -6517,7 +6523,7 @@
         <v>14</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I196" t="s">
         <v>355</v>
@@ -6541,7 +6547,7 @@
         <v>7</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I197" t="s">
         <v>357</v>
@@ -6565,7 +6571,7 @@
         <v>7</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I198" t="s">
         <v>359</v>
@@ -8873,5 +8879,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
 </worksheet>
 </file>